--- a/data/trans_dic/P33A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33A-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.7722897959312827</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.927354579248748</v>
+        <v>0.9273545792487481</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.7195460275431395</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8151524539601779</v>
+        <v>0.8187642436215958</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7177713310201468</v>
+        <v>0.715893147145319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8962867350717265</v>
+        <v>0.8948098469632743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6618021277502555</v>
+        <v>0.6534962172962078</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5722081204578526</v>
+        <v>0.5704335747468687</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8383897766117628</v>
+        <v>0.8396315754175764</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7601439143451336</v>
+        <v>0.7515575095950958</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.663854062846959</v>
+        <v>0.658311001647425</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8782662707554594</v>
+        <v>0.8773917338111444</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8983796097079831</v>
+        <v>0.8971548677122094</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8200162751080249</v>
+        <v>0.8179714614406832</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9523526283779192</v>
+        <v>0.9511319336245305</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7741263085247727</v>
+        <v>0.7734593497787621</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6886031130776228</v>
+        <v>0.6881039061424602</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8966347012550812</v>
+        <v>0.897537971130134</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8253993649549715</v>
+        <v>0.8232185058619309</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7407032127629392</v>
+        <v>0.7387823443107535</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9178512084674812</v>
+        <v>0.9186101456666244</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7941534403578108</v>
+        <v>0.7999891061231896</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8970272306720831</v>
+        <v>0.8966184317185332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7830290563085064</v>
+        <v>0.7848676889055239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6491265344359466</v>
+        <v>0.6473346413089891</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7851948782102716</v>
+        <v>0.7793925403880998</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6924063040491518</v>
+        <v>0.6896716338558653</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7332830974271523</v>
+        <v>0.7323517489843394</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8486241183889103</v>
+        <v>0.8462503019572981</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7508994892249773</v>
+        <v>0.7510160136853204</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8667113070694095</v>
+        <v>0.8691086593601038</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.943376465718112</v>
+        <v>0.9472380974997658</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8657778920549514</v>
+        <v>0.8669408677149173</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7335082320837045</v>
+        <v>0.7334102952625035</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8531104145801024</v>
+        <v>0.8520628824136737</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7595737775404342</v>
+        <v>0.7605742339638272</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7911709177351745</v>
+        <v>0.791748380461851</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8912324540052055</v>
+        <v>0.8894488875800467</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8043003035237608</v>
+        <v>0.8012054623184226</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.911132048435873</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.829058220910341</v>
+        <v>0.8290582209103409</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.7501439376840683</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8214841744503197</v>
+        <v>0.8210800068055227</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8736739872171774</v>
+        <v>0.8781052322519566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7873544913024134</v>
+        <v>0.7820334687190824</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6946939866502555</v>
+        <v>0.7028784983651426</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7498861451255797</v>
+        <v>0.7429275196204995</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7711772341023857</v>
+        <v>0.7729041434403804</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7701134967577563</v>
+        <v>0.7709311426573476</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8189252759873299</v>
+        <v>0.8207517350610928</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7908543958148797</v>
+        <v>0.7908576251875931</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8926562950344916</v>
+        <v>0.8970137228511896</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.938975658048789</v>
+        <v>0.9384589904336497</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8700512793001349</v>
+        <v>0.8656256541264131</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.796786413549584</v>
+        <v>0.7992337620460128</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8345594196264838</v>
+        <v>0.831778248558326</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8423192904058212</v>
+        <v>0.8388953495566361</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8315052567773181</v>
+        <v>0.8323993068041963</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8760557715098286</v>
+        <v>0.8778858861612889</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8454742789626662</v>
+        <v>0.8413567568021751</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.7980619562517036</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8049524888196756</v>
+        <v>0.8049524888196754</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.5912951628602529</v>
@@ -982,7 +982,7 @@
         <v>0.6432170298079781</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.7073132928122671</v>
+        <v>0.707313292812267</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.6834509890067465</v>
@@ -991,7 +991,7 @@
         <v>0.7194193706166341</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.7532144573740024</v>
+        <v>0.7532144573740022</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.73305253593789</v>
+        <v>0.7242823701329224</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7523811499843099</v>
+        <v>0.7544010498640007</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7527848260888093</v>
+        <v>0.7497740196237204</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5414812975589289</v>
+        <v>0.5408695787225113</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.590433701796669</v>
+        <v>0.5917149922371761</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6629695533801949</v>
+        <v>0.665499871030042</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6490190187683734</v>
+        <v>0.6486281025976844</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6803574648935525</v>
+        <v>0.6856724462176819</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7180764525625339</v>
+        <v>0.7191171513107822</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8246053121919054</v>
+        <v>0.8214938271297083</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8378681627508701</v>
+        <v>0.8373226864022709</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8506138898091454</v>
+        <v>0.8496766320226504</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6381729415296751</v>
+        <v>0.6443287287935926</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.690723457626051</v>
+        <v>0.6932162097618076</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7440717992163616</v>
+        <v>0.751193365297448</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7205750676129097</v>
+        <v>0.7170479872501596</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7513953745661301</v>
+        <v>0.7524613203307808</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7844992714812871</v>
+        <v>0.7866297037682822</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.7727064577370687</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9220762997725128</v>
+        <v>0.9220762997725129</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.6981222892770708</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8371884818170446</v>
+        <v>0.8335003910337927</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7075951892319783</v>
+        <v>0.7112419206781628</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8846177133643628</v>
+        <v>0.8854612615399888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6319284903717796</v>
+        <v>0.6350231770573406</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7062594213629041</v>
+        <v>0.7146834018565641</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.835551618118938</v>
+        <v>0.8383305647009551</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7451721105584573</v>
+        <v>0.7475195220841662</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7318348969432907</v>
+        <v>0.7313089831824524</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8729096551441015</v>
+        <v>0.8720894547974076</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9221450861917546</v>
+        <v>0.9238922785817826</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8282005262664769</v>
+        <v>0.8257991092932929</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9471248292390111</v>
+        <v>0.9489125988423168</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7632017384991154</v>
+        <v>0.7652352418028365</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8204282303971037</v>
+        <v>0.820794433719833</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9023951666592833</v>
+        <v>0.8997317567318895</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8256185740354408</v>
+        <v>0.8261967019179589</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8090387955064192</v>
+        <v>0.8096782360147337</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9160518459037382</v>
+        <v>0.9164358795799535</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.8489928958412463</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8082443426290659</v>
+        <v>0.8082443426290657</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.7424244998821508</v>
@@ -1200,7 +1200,7 @@
         <v>0.7332055704529377</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.7189290457704253</v>
+        <v>0.7189290457704249</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.7906475025677899</v>
@@ -1209,7 +1209,7 @@
         <v>0.790431144953355</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.7641679741541048</v>
+        <v>0.7641679741541049</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7931101901692087</v>
+        <v>0.7857099988074414</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8037774906012634</v>
+        <v>0.7988791406621266</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7606921558548674</v>
+        <v>0.7620946822472956</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.682757872073431</v>
+        <v>0.682606705118413</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6717355776586538</v>
+        <v>0.6719621984343577</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6739774934393138</v>
+        <v>0.6785884672945214</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7525614795136394</v>
+        <v>0.7514612227938104</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7536626592834048</v>
+        <v>0.7508068446398143</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7352736531477908</v>
+        <v>0.7362165310773595</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8820441094820786</v>
+        <v>0.8808495218845983</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.891840022102811</v>
+        <v>0.8871648646789684</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8467773392472282</v>
+        <v>0.8495962502965442</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7926210804022635</v>
+        <v>0.7950556688380416</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7910027687223166</v>
+        <v>0.7814506084627771</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.757027513470995</v>
+        <v>0.7619201144071469</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8229483272146256</v>
+        <v>0.8246946887670821</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8279496535009817</v>
+        <v>0.8268939409918499</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7940252438890465</v>
+        <v>0.793138847988396</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.8257539347538131</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8193255897237137</v>
+        <v>0.8193255897237136</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.7455866338707395</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8220094111942436</v>
+        <v>0.8218379086580498</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7920469627359771</v>
+        <v>0.7931798278795592</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7849359342979435</v>
+        <v>0.7843867485726366</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.710441692584171</v>
+        <v>0.7084734619892537</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6968162317491013</v>
+        <v>0.6966748560484679</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6815049416830611</v>
+        <v>0.6853417609496926</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7729631758975785</v>
+        <v>0.7752339866118325</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7512483441301216</v>
+        <v>0.7536378117081558</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7422883696685694</v>
+        <v>0.7431803529968561</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8805866537862488</v>
+        <v>0.8777941834072064</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8547506399354055</v>
+        <v>0.8524310440741411</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8505233607419839</v>
+        <v>0.8484927495838512</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7787047265182697</v>
+        <v>0.7776142960059786</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7667054515338845</v>
+        <v>0.7640923565326897</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7415258262718337</v>
+        <v>0.7444666151461092</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8180665855179085</v>
+        <v>0.8176245737491262</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.798633418471273</v>
+        <v>0.799959736829116</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7860331165814867</v>
+        <v>0.785158463003323</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         <v>0.7378590166721392</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.6791219641678242</v>
+        <v>0.6791219641678243</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.846321210815864</v>
@@ -1427,7 +1427,7 @@
         <v>0.7859417130678146</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.7349098980946636</v>
+        <v>0.7349098980946637</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8456823691516187</v>
+        <v>0.8453534489879319</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8091378933744964</v>
+        <v>0.8087217125582137</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7616484439286725</v>
+        <v>0.7644167265503363</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.789285325980164</v>
+        <v>0.793502204189079</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.703167376585683</v>
+        <v>0.7040481712991099</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6479962216555184</v>
+        <v>0.6507140703463665</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8284416593413064</v>
+        <v>0.8268967322136787</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.7636757468430515</v>
+        <v>0.7639425873351977</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7137418551473962</v>
+        <v>0.7131337529266332</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8948981240177015</v>
+        <v>0.8975160047771875</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8624444302468538</v>
+        <v>0.8634027851643609</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8200797844362373</v>
+        <v>0.8180937897351367</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.845775499434642</v>
+        <v>0.8467788455577083</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7689802139508064</v>
+        <v>0.7702112517048867</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7028179913125501</v>
+        <v>0.7053296217981091</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8660146713271396</v>
+        <v>0.8646230100546849</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8060641784532354</v>
+        <v>0.8072676749819582</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7528407789522682</v>
+        <v>0.7539487867033001</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>0.8418193306372436</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8291834018817611</v>
+        <v>0.8291834018817612</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.73330991961533</v>
@@ -1536,7 +1536,7 @@
         <v>0.7881652949642197</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.7831358020422057</v>
+        <v>0.7831358020422056</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8355227235786861</v>
+        <v>0.8363689975158747</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8286130561075479</v>
+        <v>0.8283526230432625</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.816187322381325</v>
+        <v>0.8157785977722531</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7183307788989737</v>
+        <v>0.7183848724880929</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7206079959339199</v>
+        <v>0.7214863274920306</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7267852252604039</v>
+        <v>0.7268951485169785</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7796837855505699</v>
+        <v>0.7790984735029828</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.7769686467501283</v>
+        <v>0.7782287879894464</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.7731295489654819</v>
+        <v>0.7736057071347595</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8608174005569598</v>
+        <v>0.8614790309559898</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8537020422890653</v>
+        <v>0.8541549090160839</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8426746019202755</v>
+        <v>0.8431150226549353</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7479994395276697</v>
+        <v>0.7473563928724799</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7500434816736201</v>
+        <v>0.7526417624554893</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7525662586504011</v>
+        <v>0.7522350662302815</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7990651763573907</v>
+        <v>0.7996317895769098</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7978364528565328</v>
+        <v>0.7980074749237784</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7919723987592674</v>
+        <v>0.7920933387191219</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>239480</v>
+        <v>240541</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>208701</v>
+        <v>208155</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>285777</v>
+        <v>285306</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>186182</v>
+        <v>183845</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>162582</v>
+        <v>162078</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>264982</v>
+        <v>265375</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>437168</v>
+        <v>432230</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>381645</v>
+        <v>378458</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>557617</v>
+        <v>557061</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>263931</v>
+        <v>263572</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>238430</v>
+        <v>237835</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>303653</v>
+        <v>303264</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>217782</v>
+        <v>217594</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>195653</v>
+        <v>195512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>283391</v>
+        <v>283677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>474697</v>
+        <v>473443</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>425825</v>
+        <v>424721</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>582749</v>
+        <v>583231</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>395637</v>
+        <v>398544</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>449909</v>
+        <v>449704</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>413741</v>
+        <v>414712</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>337876</v>
+        <v>336944</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>406991</v>
+        <v>403983</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>375976</v>
+        <v>374491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>746993</v>
+        <v>746044</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>865501</v>
+        <v>863080</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>804502</v>
+        <v>804627</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>431784</v>
+        <v>432979</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>473156</v>
+        <v>475093</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>457464</v>
+        <v>458079</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>381798</v>
+        <v>381747</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>442194</v>
+        <v>441651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>412448</v>
+        <v>412991</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>805963</v>
+        <v>806551</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>908956</v>
+        <v>907137</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>861714</v>
+        <v>858399</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>263729</v>
+        <v>263600</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>273887</v>
+        <v>275276</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>247251</v>
+        <v>245580</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>236905</v>
+        <v>239696</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>244796</v>
+        <v>242524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>273792</v>
+        <v>274405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>509861</v>
+        <v>510403</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>524056</v>
+        <v>525225</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>529127</v>
+        <v>529130</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>286578</v>
+        <v>287977</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>294359</v>
+        <v>294197</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>273220</v>
+        <v>271830</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>271720</v>
+        <v>272555</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>272437</v>
+        <v>271529</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>299049</v>
+        <v>297834</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>550506</v>
+        <v>551098</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>560616</v>
+        <v>561787</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>565671</v>
+        <v>562916</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>274148</v>
+        <v>270869</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>277742</v>
+        <v>278488</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>279784</v>
+        <v>278665</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>210103</v>
+        <v>209866</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>224939</v>
+        <v>225427</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>277736</v>
+        <v>278796</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>494551</v>
+        <v>494253</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>510352</v>
+        <v>514339</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>567706</v>
+        <v>568529</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>308388</v>
+        <v>307224</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>309300</v>
+        <v>309099</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>316143</v>
+        <v>315795</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>247621</v>
+        <v>250010</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>263147</v>
+        <v>264097</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>311712</v>
+        <v>314695</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>549077</v>
+        <v>546389</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>563640</v>
+        <v>564439</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>620220</v>
+        <v>621904</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>177129</v>
+        <v>176349</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>148780</v>
+        <v>149546</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>181324</v>
+        <v>181497</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>138766</v>
+        <v>139445</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>153686</v>
+        <v>155519</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>188519</v>
+        <v>189146</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>321294</v>
+        <v>322306</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>313128</v>
+        <v>312903</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>375871</v>
+        <v>375517</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>195104</v>
+        <v>195473</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>174138</v>
+        <v>173633</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>194136</v>
+        <v>194502</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>167592</v>
+        <v>168039</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>178530</v>
+        <v>178610</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>203600</v>
+        <v>202999</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>355979</v>
+        <v>356229</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>346161</v>
+        <v>346435</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>394447</v>
+        <v>394613</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>217297</v>
+        <v>215270</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>206519</v>
+        <v>205261</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>205925</v>
+        <v>206304</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>190527</v>
+        <v>190485</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>176623</v>
+        <v>176683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>177762</v>
+        <v>178978</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>416194</v>
+        <v>415585</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>391808</v>
+        <v>390323</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>392972</v>
+        <v>393476</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>241663</v>
+        <v>241336</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>229146</v>
+        <v>227945</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>229229</v>
+        <v>229992</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>221185</v>
+        <v>221864</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>207983</v>
+        <v>205471</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>199666</v>
+        <v>200956</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>455120</v>
+        <v>456086</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>430428</v>
+        <v>429879</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>424372</v>
+        <v>423899</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>542426</v>
+        <v>542313</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>514422</v>
+        <v>515158</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>556663</v>
+        <v>556274</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>491344</v>
+        <v>489983</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>478116</v>
+        <v>478019</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>514279</v>
+        <v>517174</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1044646</v>
+        <v>1047715</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1003388</v>
+        <v>1006579</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1086565</v>
+        <v>1087870</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>581080</v>
+        <v>579237</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>555147</v>
+        <v>553640</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>603177</v>
+        <v>601737</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>538555</v>
+        <v>537801</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>526070</v>
+        <v>524277</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>559572</v>
+        <v>561791</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1105602</v>
+        <v>1105005</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1066676</v>
+        <v>1068448</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1150598</v>
+        <v>1149318</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>650506</v>
+        <v>650253</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>619902</v>
+        <v>619583</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>607850</v>
+        <v>610060</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>639837</v>
+        <v>643255</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>577575</v>
+        <v>578299</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>538231</v>
+        <v>540489</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1308823</v>
+        <v>1306382</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1212349</v>
+        <v>1212773</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1162458</v>
+        <v>1161467</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>688363</v>
+        <v>690376</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>660741</v>
+        <v>661475</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>654483</v>
+        <v>652898</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>685630</v>
+        <v>686444</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>631633</v>
+        <v>632645</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>583767</v>
+        <v>585853</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1368183</v>
+        <v>1365984</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1279641</v>
+        <v>1281552</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1226137</v>
+        <v>1227942</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2842146</v>
+        <v>2845025</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2782287</v>
+        <v>2781413</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2869599</v>
+        <v>2868162</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2536982</v>
+        <v>2537173</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2520654</v>
+        <v>2523727</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2694643</v>
+        <v>2695051</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>5405869</v>
+        <v>5401811</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>5326679</v>
+        <v>5335318</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>5584684</v>
+        <v>5588124</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2928189</v>
+        <v>2930440</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2866530</v>
+        <v>2868051</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2962724</v>
+        <v>2964273</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2641765</v>
+        <v>2639494</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2623618</v>
+        <v>2632707</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2790230</v>
+        <v>2789002</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>5540248</v>
+        <v>5544177</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>5469743</v>
+        <v>5470915</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>5720795</v>
+        <v>5721669</v>
       </c>
     </row>
     <row r="40">
